--- a/session2/dc_gain.xlsx
+++ b/session2/dc_gain.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\5ºano\SCDTR\Projeto\session1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\5ºano\SCDTR\Projeto\SCDTR-Project\session2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t xml:space="preserve"> v_rate:</t>
   </si>
   <si>
     <t xml:space="preserve"> v_lux:</t>
+  </si>
+  <si>
+    <t>v_lux:</t>
   </si>
 </sst>
 </file>
@@ -347,23 +350,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E258"/>
+  <dimension ref="B2:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E245" sqref="E245"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -373,8 +382,14 @@
       <c r="D3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>59</v>
+      </c>
+      <c r="M3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -388,8 +403,22 @@
         <f>D4-D3</f>
         <v>9.9999999999999992E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>C4-C3</f>
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <v>116</v>
+      </c>
+      <c r="M4">
+        <v>0.53</v>
+      </c>
+      <c r="N4">
+        <f>M4-M3</f>
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -403,8 +432,22 @@
         <f t="shared" ref="E5:E68" si="0">D5-D4</f>
         <v>5.0000000000000017E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" ref="G5:G68" si="1">C5-C4</f>
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>139</v>
+      </c>
+      <c r="M5">
+        <v>0.71</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N68" si="2">M5-M4</f>
+        <v>0.17999999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -418,8 +461,22 @@
         <f t="shared" si="0"/>
         <v>4.9999999999999989E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>160</v>
+      </c>
+      <c r="M6">
+        <v>0.9</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.19000000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -433,8 +490,22 @@
         <f t="shared" si="0"/>
         <v>4.9999999999999989E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>180</v>
+      </c>
+      <c r="M7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -448,8 +519,22 @@
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>197</v>
+      </c>
+      <c r="M8">
+        <v>1.29</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0.18999999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -463,8 +548,22 @@
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>214</v>
+      </c>
+      <c r="M9">
+        <v>1.49</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -478,8 +577,22 @@
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>230</v>
+      </c>
+      <c r="M10">
+        <v>1.7</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.20999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -493,8 +606,22 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>243</v>
+      </c>
+      <c r="M11">
+        <v>1.89</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0.18999999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -508,8 +635,22 @@
         <f t="shared" si="0"/>
         <v>5.9999999999999942E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>256</v>
+      </c>
+      <c r="M12">
+        <v>2.08</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0.19000000000000017</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -523,8 +664,22 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>268</v>
+      </c>
+      <c r="M13">
+        <v>2.27</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0.18999999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -538,8 +693,22 @@
         <f t="shared" si="0"/>
         <v>8.9999999999999969E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>281</v>
+      </c>
+      <c r="M14">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0.2200000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -553,8 +722,22 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>291</v>
+      </c>
+      <c r="M15">
+        <v>2.67</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0.17999999999999972</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -568,8 +751,22 @@
         <f t="shared" si="0"/>
         <v>4.9999999999999933E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>302</v>
+      </c>
+      <c r="M16">
+        <v>2.88</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0.20999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -583,8 +780,22 @@
         <f t="shared" si="0"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>312</v>
+      </c>
+      <c r="M17">
+        <v>3.08</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -598,8 +809,22 @@
         <f t="shared" si="0"/>
         <v>5.9999999999999942E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>320</v>
+      </c>
+      <c r="M18">
+        <v>3.24</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>0.16000000000000014</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
@@ -613,8 +838,22 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>330</v>
+      </c>
+      <c r="M19">
+        <v>3.46</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>0.21999999999999975</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
@@ -628,8 +867,22 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>338</v>
+      </c>
+      <c r="M20">
+        <v>3.64</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>0.18000000000000016</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
@@ -643,8 +896,22 @@
         <f t="shared" si="0"/>
         <v>5.9999999999999831E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>346</v>
+      </c>
+      <c r="M21">
+        <v>3.83</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0.18999999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
@@ -658,8 +925,22 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>355</v>
+      </c>
+      <c r="M22">
+        <v>4.05</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>0.21999999999999975</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
@@ -673,8 +954,22 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>362</v>
+      </c>
+      <c r="M23">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>0.1800000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
@@ -688,8 +983,22 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>370</v>
+      </c>
+      <c r="M24">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>0.20999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>22</v>
       </c>
@@ -703,8 +1012,22 @@
         <f t="shared" si="0"/>
         <v>8.9999999999999858E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>377</v>
+      </c>
+      <c r="M25">
+        <v>4.63</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>0.1899999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>23</v>
       </c>
@@ -718,8 +1041,22 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>384</v>
+      </c>
+      <c r="M26">
+        <v>4.83</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>24</v>
       </c>
@@ -733,8 +1070,22 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>391</v>
+      </c>
+      <c r="M27">
+        <v>5.03</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
@@ -748,8 +1099,22 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L28">
+        <v>397</v>
+      </c>
+      <c r="M28">
+        <v>5.21</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>0.17999999999999972</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>26</v>
       </c>
@@ -763,8 +1128,22 @@
         <f t="shared" si="0"/>
         <v>5.9999999999999831E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>403</v>
+      </c>
+      <c r="M29">
+        <v>5.4</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>0.19000000000000039</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27</v>
       </c>
@@ -778,8 +1157,22 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>410</v>
+      </c>
+      <c r="M30">
+        <v>5.62</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>0.21999999999999975</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>28</v>
       </c>
@@ -793,8 +1186,22 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>415</v>
+      </c>
+      <c r="M31">
+        <v>5.79</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>0.16999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>29</v>
       </c>
@@ -808,8 +1215,22 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>421</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0.20999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>30</v>
       </c>
@@ -823,8 +1244,22 @@
         <f t="shared" si="0"/>
         <v>5.9999999999999831E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>436</v>
+      </c>
+      <c r="M33">
+        <v>6.53</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>0.53000000000000025</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>31</v>
       </c>
@@ -838,8 +1273,22 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>432</v>
+      </c>
+      <c r="M34">
+        <v>6.39</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>-0.14000000000000057</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>32</v>
       </c>
@@ -853,8 +1302,22 @@
         <f t="shared" si="0"/>
         <v>5.9999999999999831E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>447</v>
+      </c>
+      <c r="M35">
+        <v>6.96</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0.57000000000000028</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>33</v>
       </c>
@@ -868,8 +1331,22 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000284E-2</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>442</v>
+      </c>
+      <c r="M36">
+        <v>6.76</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>34</v>
       </c>
@@ -883,8 +1360,22 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>457</v>
+      </c>
+      <c r="M37">
+        <v>7.36</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000053</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>35</v>
       </c>
@@ -898,8 +1389,22 @@
         <f t="shared" si="0"/>
         <v>4.9999999999999822E-2</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>453</v>
+      </c>
+      <c r="M38">
+        <v>7.2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>-0.16000000000000014</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>36</v>
       </c>
@@ -913,8 +1418,22 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>466</v>
+      </c>
+      <c r="M39">
+        <v>7.75</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>0.54999999999999982</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>37</v>
       </c>
@@ -928,8 +1447,22 @@
         <f t="shared" si="0"/>
         <v>4.9999999999999822E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>461</v>
+      </c>
+      <c r="M40">
+        <v>7.53</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>-0.21999999999999975</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>38</v>
       </c>
@@ -943,8 +1476,22 @@
         <f t="shared" si="0"/>
         <v>9.0000000000000302E-2</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>476</v>
+      </c>
+      <c r="M41">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>0.66999999999999904</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>39</v>
       </c>
@@ -958,8 +1505,22 @@
         <f t="shared" si="0"/>
         <v>0.11999999999999966</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L42">
+        <v>470</v>
+      </c>
+      <c r="M42">
+        <v>7.92</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>-0.27999999999999936</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>40</v>
       </c>
@@ -973,8 +1534,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>484</v>
+      </c>
+      <c r="M43">
+        <v>8.57</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>0.65000000000000036</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>41</v>
       </c>
@@ -988,8 +1563,22 @@
         <f t="shared" si="0"/>
         <v>0.12000000000000011</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L44">
+        <v>479</v>
+      </c>
+      <c r="M44">
+        <v>8.34</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>-0.23000000000000043</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>42</v>
       </c>
@@ -1003,8 +1592,22 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>492</v>
+      </c>
+      <c r="M45">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>0.63000000000000078</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>43</v>
       </c>
@@ -1018,8 +1621,22 @@
         <f t="shared" si="0"/>
         <v>0.12999999999999989</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>487</v>
+      </c>
+      <c r="M46">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>44</v>
       </c>
@@ -1033,8 +1650,22 @@
         <f t="shared" si="0"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="L47">
+        <v>500</v>
+      </c>
+      <c r="M47">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>0.66000000000000014</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>45</v>
       </c>
@@ -1048,8 +1679,22 @@
         <f t="shared" si="0"/>
         <v>0.14000000000000012</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L48">
+        <v>495</v>
+      </c>
+      <c r="M48">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>-0.26000000000000156</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>46</v>
       </c>
@@ -1063,8 +1708,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>499</v>
+      </c>
+      <c r="M49">
+        <v>9.32</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000107</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>47</v>
       </c>
@@ -1078,8 +1737,22 @@
         <f t="shared" si="0"/>
         <v>0.14000000000000012</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L50">
+        <v>501</v>
+      </c>
+      <c r="M50">
+        <v>9.43</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>0.10999999999999943</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>48</v>
       </c>
@@ -1093,8 +1766,22 @@
         <f t="shared" si="0"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="L51">
+        <v>505</v>
+      </c>
+      <c r="M51">
+        <v>9.64</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>0.21000000000000085</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>49</v>
       </c>
@@ -1108,8 +1795,22 @@
         <f t="shared" si="0"/>
         <v>0.16000000000000014</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L52">
+        <v>507</v>
+      </c>
+      <c r="M52">
+        <v>9.75</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>0.10999999999999943</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>50</v>
       </c>
@@ -1123,8 +1824,22 @@
         <f t="shared" si="0"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="L53">
+        <v>512</v>
+      </c>
+      <c r="M53">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="2"/>
+        <v>0.27999999999999936</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>51</v>
       </c>
@@ -1138,8 +1853,22 @@
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L54">
+        <v>514</v>
+      </c>
+      <c r="M54">
+        <v>10.14</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="2"/>
+        <v>0.11000000000000121</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>52</v>
       </c>
@@ -1153,8 +1882,22 @@
         <f t="shared" si="0"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="L55">
+        <v>518</v>
+      </c>
+      <c r="M55">
+        <v>10.37</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>0.22999999999999865</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>53</v>
       </c>
@@ -1168,8 +1911,22 @@
         <f t="shared" si="0"/>
         <v>0.16999999999999993</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L56">
+        <v>521</v>
+      </c>
+      <c r="M56">
+        <v>10.55</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="2"/>
+        <v>0.18000000000000149</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>54</v>
       </c>
@@ -1183,8 +1940,22 @@
         <f t="shared" si="0"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="L57">
+        <v>525</v>
+      </c>
+      <c r="M57">
+        <v>10.78</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>0.22999999999999865</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>55</v>
       </c>
@@ -1198,8 +1969,22 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>527</v>
+      </c>
+      <c r="M58">
+        <v>10.91</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="2"/>
+        <v>0.13000000000000078</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>56</v>
       </c>
@@ -1213,8 +1998,22 @@
         <f t="shared" si="0"/>
         <v>4.9999999999999822E-2</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>530</v>
+      </c>
+      <c r="M59">
+        <v>11.09</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="2"/>
+        <v>0.17999999999999972</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>57</v>
       </c>
@@ -1228,8 +2027,22 @@
         <f t="shared" si="0"/>
         <v>9.0000000000000302E-2</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <v>533</v>
+      </c>
+      <c r="M60">
+        <v>11.28</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="2"/>
+        <v>0.1899999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>58</v>
       </c>
@@ -1243,8 +2056,22 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-2</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>536</v>
+      </c>
+      <c r="M61">
+        <v>11.47</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>0.19000000000000128</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>59</v>
       </c>
@@ -1258,8 +2085,22 @@
         <f t="shared" si="0"/>
         <v>6.999999999999984E-2</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>538</v>
+      </c>
+      <c r="M62">
+        <v>11.6</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="2"/>
+        <v>0.12999999999999901</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>60</v>
       </c>
@@ -1273,8 +2114,22 @@
         <f t="shared" si="0"/>
         <v>4.9999999999999822E-2</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>541</v>
+      </c>
+      <c r="M63">
+        <v>11.8</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000107</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>61</v>
       </c>
@@ -1288,8 +2143,22 @@
         <f t="shared" si="0"/>
         <v>0.10000000000000009</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>553</v>
+      </c>
+      <c r="M64">
+        <v>12.62</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="2"/>
+        <v>0.81999999999999851</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>62</v>
       </c>
@@ -1303,8 +2172,22 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>547</v>
+      </c>
+      <c r="M65">
+        <v>12.2</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="2"/>
+        <v>-0.41999999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>63</v>
       </c>
@@ -1318,8 +2201,22 @@
         <f t="shared" si="0"/>
         <v>0.10000000000000009</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L66">
+        <v>560</v>
+      </c>
+      <c r="M66">
+        <v>13.13</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="2"/>
+        <v>0.93000000000000149</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>64</v>
       </c>
@@ -1333,8 +2230,22 @@
         <f t="shared" si="0"/>
         <v>4.9999999999999822E-2</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>552</v>
+      </c>
+      <c r="M67">
+        <v>12.55</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="2"/>
+        <v>-0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>65</v>
       </c>
@@ -1348,8 +2259,22 @@
         <f t="shared" si="0"/>
         <v>4.9999999999999822E-2</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>564</v>
+      </c>
+      <c r="M68">
+        <v>13.43</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="2"/>
+        <v>0.87999999999999901</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>66</v>
       </c>
@@ -1360,11 +2285,25 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E132" si="1">D69-D68</f>
+        <f t="shared" ref="E69:E132" si="3">D69-D68</f>
         <v>5.0000000000000711E-2</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <f t="shared" ref="G69:G132" si="4">C69-C68</f>
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>557</v>
+      </c>
+      <c r="M69">
+        <v>12.91</v>
+      </c>
+      <c r="N69">
+        <f t="shared" ref="N69:N132" si="5">M69-M68</f>
+        <v>-0.51999999999999957</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>67</v>
       </c>
@@ -1375,11 +2314,25 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>570</v>
+      </c>
+      <c r="M70">
+        <v>13.89</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="5"/>
+        <v>0.98000000000000043</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>68</v>
       </c>
@@ -1390,11 +2343,25 @@
         <v>4.38</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14999999999999947</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L71">
+        <v>561</v>
+      </c>
+      <c r="M71">
+        <v>13.2</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="5"/>
+        <v>-0.69000000000000128</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>69</v>
       </c>
@@ -1405,11 +2372,25 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.9999999999999574E-2</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="L72">
+        <v>575</v>
+      </c>
+      <c r="M72">
+        <v>14.29</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="5"/>
+        <v>1.0899999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>70</v>
       </c>
@@ -1420,11 +2401,25 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.15999999999999925</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L73">
+        <v>567</v>
+      </c>
+      <c r="M73">
+        <v>13.66</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="5"/>
+        <v>-0.62999999999999901</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>71</v>
       </c>
@@ -1435,11 +2430,25 @@
         <v>4.46</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.9999999999999609E-2</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="L74">
+        <v>580</v>
+      </c>
+      <c r="M74">
+        <v>14.7</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="5"/>
+        <v>1.0399999999999991</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>72</v>
       </c>
@@ -1450,11 +2459,25 @@
         <v>4.66</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.20000000000000018</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L75">
+        <v>570</v>
+      </c>
+      <c r="M75">
+        <v>13.89</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="5"/>
+        <v>-0.80999999999999872</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>73</v>
       </c>
@@ -1465,11 +2488,25 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.0000000000000497E-2</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="L76">
+        <v>574</v>
+      </c>
+      <c r="M76">
+        <v>14.21</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="5"/>
+        <v>0.32000000000000028</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>74</v>
       </c>
@@ -1480,11 +2517,25 @@
         <v>4.8</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.20000000000000018</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L77">
+        <v>575</v>
+      </c>
+      <c r="M77">
+        <v>14.29</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="5"/>
+        <v>7.9999999999998295E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>75</v>
       </c>
@@ -1495,11 +2546,25 @@
         <v>4.71</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-8.9999999999999858E-2</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="L78">
+        <v>577</v>
+      </c>
+      <c r="M78">
+        <v>14.45</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="5"/>
+        <v>0.16000000000000014</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>76</v>
       </c>
@@ -1510,11 +2575,25 @@
         <v>4.9400000000000004</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.23000000000000043</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="L79">
+        <v>579</v>
+      </c>
+      <c r="M79">
+        <v>14.62</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="5"/>
+        <v>0.16999999999999993</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>77</v>
       </c>
@@ -1525,11 +2604,25 @@
         <v>4.83</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.11000000000000032</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="L80">
+        <v>582</v>
+      </c>
+      <c r="M80">
+        <v>14.87</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>78</v>
       </c>
@@ -1540,11 +2633,25 @@
         <v>4.91</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>584</v>
+      </c>
+      <c r="M81">
+        <v>15.04</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="5"/>
+        <v>0.16999999999999993</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>79</v>
       </c>
@@ -1555,11 +2662,25 @@
         <v>4.9400000000000004</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>587</v>
+      </c>
+      <c r="M82">
+        <v>15.3</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="5"/>
+        <v>0.26000000000000156</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>80</v>
       </c>
@@ -1570,11 +2691,25 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11999999999999922</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>589</v>
+      </c>
+      <c r="M83">
+        <v>15.48</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="5"/>
+        <v>0.17999999999999972</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>81</v>
       </c>
@@ -1585,11 +2720,25 @@
         <v>5.09</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>592</v>
+      </c>
+      <c r="M84">
+        <v>15.75</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="5"/>
+        <v>0.26999999999999957</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>82</v>
       </c>
@@ -1600,11 +2749,25 @@
         <v>5.18</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.9999999999999858E-2</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>600</v>
+      </c>
+      <c r="M85">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="5"/>
+        <v>0.73999999999999844</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>83</v>
       </c>
@@ -1615,11 +2778,25 @@
         <v>5.34</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.16000000000000014</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="L86">
+        <v>596</v>
+      </c>
+      <c r="M86">
+        <v>16.11</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="5"/>
+        <v>-0.37999999999999901</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>84</v>
       </c>
@@ -1630,11 +2807,25 @@
         <v>5.27</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.0000000000000284E-2</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="L87">
+        <v>604</v>
+      </c>
+      <c r="M87">
+        <v>16.87</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="5"/>
+        <v>0.76000000000000156</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>85</v>
       </c>
@@ -1645,11 +2836,25 @@
         <v>5.46</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.19000000000000039</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L88">
+        <v>599</v>
+      </c>
+      <c r="M88">
+        <v>16.39</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="5"/>
+        <v>-0.48000000000000043</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>86</v>
       </c>
@@ -1660,11 +2865,25 @@
         <v>5.4</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.9999999999999609E-2</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="L89">
+        <v>608</v>
+      </c>
+      <c r="M89">
+        <v>17.27</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="5"/>
+        <v>0.87999999999999901</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>87</v>
       </c>
@@ -1675,11 +2894,25 @@
         <v>5.59</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.1899999999999995</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L90">
+        <v>603</v>
+      </c>
+      <c r="M90">
+        <v>16.78</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="5"/>
+        <v>-0.48999999999999844</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>88</v>
       </c>
@@ -1690,11 +2923,25 @@
         <v>5.53</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.9999999999999609E-2</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="L91">
+        <v>612</v>
+      </c>
+      <c r="M91">
+        <v>17.68</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="5"/>
+        <v>0.89999999999999858</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>89</v>
       </c>
@@ -1705,11 +2952,25 @@
         <v>5.76</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22999999999999954</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L92">
+        <v>606</v>
+      </c>
+      <c r="M92">
+        <v>17.07</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="5"/>
+        <v>-0.60999999999999943</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>90</v>
       </c>
@@ -1720,11 +2981,25 @@
         <v>5.66</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-9.9999999999999645E-2</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="L93">
+        <v>616</v>
+      </c>
+      <c r="M93">
+        <v>18.09</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="5"/>
+        <v>1.0199999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>91</v>
       </c>
@@ -1735,11 +3010,25 @@
         <v>5.86</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.20000000000000018</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L94">
+        <v>610</v>
+      </c>
+      <c r="M94">
+        <v>17.47</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="5"/>
+        <v>-0.62000000000000099</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>92</v>
       </c>
@@ -1750,11 +3039,25 @@
         <v>5.76</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.10000000000000053</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="L95">
+        <v>620</v>
+      </c>
+      <c r="M95">
+        <v>18.52</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="5"/>
+        <v>1.0500000000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>93</v>
       </c>
@@ -1765,11 +3068,25 @@
         <v>6</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.24000000000000021</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L96">
+        <v>613</v>
+      </c>
+      <c r="M96">
+        <v>17.78</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="5"/>
+        <v>-0.73999999999999844</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>94</v>
       </c>
@@ -1780,11 +3097,25 @@
         <v>5.89</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.11000000000000032</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="L97">
+        <v>623</v>
+      </c>
+      <c r="M97">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="5"/>
+        <v>1.0700000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>95</v>
       </c>
@@ -1795,11 +3126,25 @@
         <v>6.1</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.20999999999999996</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L98">
+        <v>616</v>
+      </c>
+      <c r="M98">
+        <v>18.09</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="5"/>
+        <v>-0.76000000000000156</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>96</v>
       </c>
@@ -1810,11 +3155,25 @@
         <v>6</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-9.9999999999999645E-2</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="L99">
+        <v>627</v>
+      </c>
+      <c r="M99">
+        <v>19.3</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="5"/>
+        <v>1.2100000000000009</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>97</v>
       </c>
@@ -1825,11 +3184,25 @@
         <v>6.24</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.24000000000000021</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L100">
+        <v>619</v>
+      </c>
+      <c r="M100">
+        <v>18.41</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="5"/>
+        <v>-0.89000000000000057</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>98</v>
       </c>
@@ -1840,11 +3213,25 @@
         <v>6.13</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.11000000000000032</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="L101">
+        <v>631</v>
+      </c>
+      <c r="M101">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="5"/>
+        <v>1.3500000000000014</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>99</v>
       </c>
@@ -1855,11 +3242,25 @@
         <v>6.39</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25999999999999979</v>
       </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L102">
+        <v>621</v>
+      </c>
+      <c r="M102">
+        <v>18.63</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="5"/>
+        <v>-1.1300000000000026</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>100</v>
       </c>
@@ -1870,11 +3271,25 @@
         <v>6.24</v>
       </c>
       <c r="E103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.14999999999999947</v>
       </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="L103">
+        <v>634</v>
+      </c>
+      <c r="M103">
+        <v>20.11</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="5"/>
+        <v>1.4800000000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>101</v>
       </c>
@@ -1885,11 +3300,25 @@
         <v>6.35</v>
       </c>
       <c r="E104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.10999999999999943</v>
       </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>623</v>
+      </c>
+      <c r="M104">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="5"/>
+        <v>-1.259999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>102</v>
       </c>
@@ -1900,11 +3329,25 @@
         <v>6.5</v>
       </c>
       <c r="E105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.15000000000000036</v>
       </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L105">
+        <v>626</v>
+      </c>
+      <c r="M105">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="5"/>
+        <v>0.33999999999999986</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>103</v>
       </c>
@@ -1915,11 +3358,25 @@
         <v>6.42</v>
       </c>
       <c r="E106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="L106">
+        <v>637</v>
+      </c>
+      <c r="M106">
+        <v>20.48</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="5"/>
+        <v>1.2899999999999991</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>104</v>
       </c>
@@ -1930,11 +3387,25 @@
         <v>6.69</v>
       </c>
       <c r="E107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.27000000000000046</v>
       </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L107">
+        <v>629</v>
+      </c>
+      <c r="M107">
+        <v>19.53</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="5"/>
+        <v>-0.94999999999999929</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>105</v>
       </c>
@@ -1945,11 +3416,25 @@
         <v>6.53</v>
       </c>
       <c r="E108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.16000000000000014</v>
       </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="L108">
+        <v>642</v>
+      </c>
+      <c r="M108">
+        <v>21.1</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="5"/>
+        <v>1.5700000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>106</v>
       </c>
@@ -1960,11 +3445,25 @@
         <v>6.8</v>
       </c>
       <c r="E109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.26999999999999957</v>
       </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L109">
+        <v>631</v>
+      </c>
+      <c r="M109">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="5"/>
+        <v>-1.3399999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>107</v>
       </c>
@@ -1975,11 +3474,25 @@
         <v>6.69</v>
       </c>
       <c r="E110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.10999999999999943</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="L110">
+        <v>645</v>
+      </c>
+      <c r="M110">
+        <v>21.48</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="5"/>
+        <v>1.7199999999999989</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>108</v>
       </c>
@@ -1990,11 +3503,25 @@
         <v>6.92</v>
       </c>
       <c r="E111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22999999999999954</v>
       </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L111">
+        <v>633</v>
+      </c>
+      <c r="M111">
+        <v>20</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="5"/>
+        <v>-1.4800000000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>109</v>
       </c>
@@ -2005,11 +3532,25 @@
         <v>6.76</v>
       </c>
       <c r="E112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.16000000000000014</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="L112">
+        <v>647</v>
+      </c>
+      <c r="M112">
+        <v>21.74</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="5"/>
+        <v>1.7399999999999984</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>110</v>
       </c>
@@ -2020,11 +3561,25 @@
         <v>6.88</v>
       </c>
       <c r="E113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12000000000000011</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L113">
+        <v>636</v>
+      </c>
+      <c r="M113">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="5"/>
+        <v>-1.389999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>111</v>
       </c>
@@ -2035,11 +3590,25 @@
         <v>7.04</v>
       </c>
       <c r="E114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.16000000000000014</v>
       </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L114">
+        <v>638</v>
+      </c>
+      <c r="M114">
+        <v>20.6</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>112</v>
       </c>
@@ -2050,11 +3619,25 @@
         <v>7</v>
       </c>
       <c r="E115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="L115">
+        <v>650</v>
+      </c>
+      <c r="M115">
+        <v>22.14</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="5"/>
+        <v>1.5399999999999991</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>113</v>
       </c>
@@ -2065,11 +3648,25 @@
         <v>7.2</v>
       </c>
       <c r="E116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.20000000000000018</v>
       </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="L116">
+        <v>640</v>
+      </c>
+      <c r="M116">
+        <v>20.85</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="5"/>
+        <v>-1.2899999999999991</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>114</v>
       </c>
@@ -2080,11 +3677,25 @@
         <v>7.08</v>
       </c>
       <c r="E117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.12000000000000011</v>
       </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="L117">
+        <v>653</v>
+      </c>
+      <c r="M117">
+        <v>22.54</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="5"/>
+        <v>1.6899999999999977</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>115</v>
       </c>
@@ -2095,11 +3706,25 @@
         <v>7.32</v>
       </c>
       <c r="E118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.24000000000000021</v>
       </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L118">
+        <v>643</v>
+      </c>
+      <c r="M118">
+        <v>21.22</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="5"/>
+        <v>-1.3200000000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>116</v>
       </c>
@@ -2110,11 +3735,25 @@
         <v>7.2</v>
       </c>
       <c r="E119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.12000000000000011</v>
       </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="L119">
+        <v>657</v>
+      </c>
+      <c r="M119">
+        <v>23.09</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="5"/>
+        <v>1.870000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>117</v>
       </c>
@@ -2125,11 +3764,25 @@
         <v>7.45</v>
       </c>
       <c r="E120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L120">
+        <v>645</v>
+      </c>
+      <c r="M120">
+        <v>21.48</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="5"/>
+        <v>-1.6099999999999994</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>118</v>
       </c>
@@ -2140,11 +3793,25 @@
         <v>7.28</v>
       </c>
       <c r="E121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.16999999999999993</v>
       </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="L121">
+        <v>659</v>
+      </c>
+      <c r="M121">
+        <v>23.38</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="5"/>
+        <v>1.8999999999999986</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>119</v>
       </c>
@@ -2155,11 +3822,25 @@
         <v>7.41</v>
       </c>
       <c r="E122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12999999999999989</v>
       </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>647</v>
+      </c>
+      <c r="M122">
+        <v>21.74</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="5"/>
+        <v>-1.6400000000000006</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>120</v>
       </c>
@@ -2170,11 +3851,25 @@
         <v>7.57</v>
       </c>
       <c r="E123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.16000000000000014</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L123">
+        <v>662</v>
+      </c>
+      <c r="M123">
+        <v>23.81</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="5"/>
+        <v>2.0700000000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>121</v>
       </c>
@@ -2185,11 +3880,25 @@
         <v>7.49</v>
       </c>
       <c r="E124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="L124">
+        <v>662</v>
+      </c>
+      <c r="M124">
+        <v>23.81</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>122</v>
       </c>
@@ -2200,11 +3909,25 @@
         <v>7.79</v>
       </c>
       <c r="E125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.29999999999999982</v>
       </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L125">
+        <v>651</v>
+      </c>
+      <c r="M125">
+        <v>22.27</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="5"/>
+        <v>-1.5399999999999991</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>123</v>
       </c>
@@ -2215,11 +3938,25 @@
         <v>7.62</v>
       </c>
       <c r="E126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.16999999999999993</v>
       </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="L126">
+        <v>666</v>
+      </c>
+      <c r="M126">
+        <v>24.4</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="5"/>
+        <v>2.129999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>124</v>
       </c>
@@ -2230,11 +3967,25 @@
         <v>7.88</v>
       </c>
       <c r="E127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25999999999999979</v>
       </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L127">
+        <v>653</v>
+      </c>
+      <c r="M127">
+        <v>22.54</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="5"/>
+        <v>-1.8599999999999994</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>125</v>
       </c>
@@ -2245,11 +3996,25 @@
         <v>7.7</v>
       </c>
       <c r="E128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.17999999999999972</v>
       </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="L128">
+        <v>668</v>
+      </c>
+      <c r="M128">
+        <v>24.71</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="5"/>
+        <v>2.1700000000000017</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>126</v>
       </c>
@@ -2260,11 +4025,25 @@
         <v>8.01</v>
       </c>
       <c r="E129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.30999999999999961</v>
       </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L129">
+        <v>656</v>
+      </c>
+      <c r="M129">
+        <v>22.95</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="5"/>
+        <v>-1.7600000000000016</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>127</v>
       </c>
@@ -2275,11 +4054,25 @@
         <v>7.84</v>
       </c>
       <c r="E130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.16999999999999993</v>
       </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="L130">
+        <v>670</v>
+      </c>
+      <c r="M130">
+        <v>25.01</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="5"/>
+        <v>2.0600000000000023</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>128</v>
       </c>
@@ -2290,11 +4083,25 @@
         <v>8.15</v>
       </c>
       <c r="E131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.3100000000000005</v>
       </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L131">
+        <v>658</v>
+      </c>
+      <c r="M131">
+        <v>23.24</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="5"/>
+        <v>-1.7700000000000031</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>129</v>
       </c>
@@ -2305,11 +4112,25 @@
         <v>8.15</v>
       </c>
       <c r="E132">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>672</v>
+      </c>
+      <c r="M132">
+        <v>25.32</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="5"/>
+        <v>2.0800000000000018</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>130</v>
       </c>
@@ -2320,11 +4141,25 @@
         <v>8.06</v>
       </c>
       <c r="E133">
-        <f t="shared" ref="E133:E196" si="2">D133-D132</f>
+        <f t="shared" ref="E133:E196" si="6">D133-D132</f>
         <v>-8.9999999999999858E-2</v>
       </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <f t="shared" ref="G133:G196" si="7">C133-C132</f>
+        <v>-2</v>
+      </c>
+      <c r="L133">
+        <v>673</v>
+      </c>
+      <c r="M133">
+        <v>25.48</v>
+      </c>
+      <c r="N133">
+        <f t="shared" ref="N133:N196" si="8">M133-M132</f>
+        <v>0.16000000000000014</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>131</v>
       </c>
@@ -2335,11 +4170,25 @@
         <v>8.34</v>
       </c>
       <c r="E134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27999999999999936</v>
       </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L134">
+        <v>662</v>
+      </c>
+      <c r="M134">
+        <v>23.81</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="8"/>
+        <v>-1.6700000000000017</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>132</v>
       </c>
@@ -2350,11 +4199,25 @@
         <v>8.1</v>
       </c>
       <c r="E135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.24000000000000021</v>
       </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L135">
+        <v>675</v>
+      </c>
+      <c r="M135">
+        <v>25.8</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="8"/>
+        <v>1.990000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>133</v>
       </c>
@@ -2365,11 +4228,25 @@
         <v>8.43</v>
       </c>
       <c r="E136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33000000000000007</v>
       </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="L136">
+        <v>664</v>
+      </c>
+      <c r="M136">
+        <v>24.1</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="8"/>
+        <v>-1.6999999999999993</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>134</v>
       </c>
@@ -2380,11 +4257,25 @@
         <v>8.24</v>
       </c>
       <c r="E137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.1899999999999995</v>
       </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="L137">
+        <v>677</v>
+      </c>
+      <c r="M137">
+        <v>26.13</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="8"/>
+        <v>2.0299999999999976</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>135</v>
       </c>
@@ -2395,11 +4286,25 @@
         <v>8.57</v>
       </c>
       <c r="E138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33000000000000007</v>
       </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="L138">
+        <v>666</v>
+      </c>
+      <c r="M138">
+        <v>24.4</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="8"/>
+        <v>-1.7300000000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>136</v>
       </c>
@@ -2410,11 +4315,25 @@
         <v>8.34</v>
       </c>
       <c r="E139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.23000000000000043</v>
       </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L139">
+        <v>680</v>
+      </c>
+      <c r="M139">
+        <v>26.62</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="8"/>
+        <v>2.2200000000000024</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>137</v>
       </c>
@@ -2425,11 +4344,25 @@
         <v>8.67</v>
       </c>
       <c r="E140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33000000000000007</v>
       </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="L140">
+        <v>668</v>
+      </c>
+      <c r="M140">
+        <v>24.71</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="8"/>
+        <v>-1.9100000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>138</v>
       </c>
@@ -2440,11 +4373,25 @@
         <v>8.67</v>
       </c>
       <c r="E141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>681</v>
+      </c>
+      <c r="M141">
+        <v>26.79</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="8"/>
+        <v>2.0799999999999983</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>139</v>
       </c>
@@ -2455,11 +4402,25 @@
         <v>8.57</v>
       </c>
       <c r="E142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.9999999999999645E-2</v>
       </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="L142">
+        <v>681</v>
+      </c>
+      <c r="M142">
+        <v>26.79</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>140</v>
       </c>
@@ -2470,11 +4431,25 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="E143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.29999999999999893</v>
       </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L143">
+        <v>672</v>
+      </c>
+      <c r="M143">
+        <v>25.32</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="8"/>
+        <v>-1.4699999999999989</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>141</v>
       </c>
@@ -2485,11 +4460,25 @@
         <v>8.6199999999999992</v>
       </c>
       <c r="E144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L144">
+        <v>684</v>
+      </c>
+      <c r="M144">
+        <v>27.3</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="8"/>
+        <v>1.9800000000000004</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>142</v>
       </c>
@@ -2500,11 +4489,25 @@
         <v>8.9700000000000006</v>
       </c>
       <c r="E145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.35000000000000142</v>
       </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="L145">
+        <v>673</v>
+      </c>
+      <c r="M145">
+        <v>25.48</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="8"/>
+        <v>-1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>143</v>
       </c>
@@ -2515,11 +4518,25 @@
         <v>8.77</v>
       </c>
       <c r="E146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.20000000000000107</v>
       </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="L146">
+        <v>687</v>
+      </c>
+      <c r="M146">
+        <v>27.82</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="8"/>
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>144</v>
       </c>
@@ -2530,11 +4547,25 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="E147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.34999999999999964</v>
       </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="L147">
+        <v>676</v>
+      </c>
+      <c r="M147">
+        <v>25.96</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="8"/>
+        <v>-1.8599999999999994</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>145</v>
       </c>
@@ -2545,11 +4576,25 @@
         <v>9.07</v>
       </c>
       <c r="E148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-4.9999999999998934E-2</v>
       </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="L148">
+        <v>689</v>
+      </c>
+      <c r="M148">
+        <v>28.18</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="8"/>
+        <v>2.2199999999999989</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>146</v>
       </c>
@@ -2560,11 +4605,25 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="E149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15000000000000036</v>
       </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L149">
+        <v>678</v>
+      </c>
+      <c r="M149">
+        <v>26.29</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="8"/>
+        <v>-1.8900000000000006</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>147</v>
       </c>
@@ -2575,11 +4634,25 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="E150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>690</v>
+      </c>
+      <c r="M150">
+        <v>28.36</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="8"/>
+        <v>2.0700000000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>148</v>
       </c>
@@ -2590,11 +4663,25 @@
         <v>9.07</v>
       </c>
       <c r="E151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.15000000000000036</v>
       </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="L151">
+        <v>690</v>
+      </c>
+      <c r="M151">
+        <v>28.36</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>149</v>
       </c>
@@ -2605,11 +4692,25 @@
         <v>9.3800000000000008</v>
       </c>
       <c r="E152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.3100000000000005</v>
       </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L152">
+        <v>680</v>
+      </c>
+      <c r="M152">
+        <v>26.62</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="8"/>
+        <v>-1.7399999999999984</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>150</v>
       </c>
@@ -2620,11 +4721,25 @@
         <v>9.17</v>
       </c>
       <c r="E153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.21000000000000085</v>
       </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="L153">
+        <v>693</v>
+      </c>
+      <c r="M153">
+        <v>28.91</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="8"/>
+        <v>2.2899999999999991</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>151</v>
       </c>
@@ -2635,11 +4750,25 @@
         <v>9.48</v>
       </c>
       <c r="E154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.3100000000000005</v>
       </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L154">
+        <v>681</v>
+      </c>
+      <c r="M154">
+        <v>26.79</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="8"/>
+        <v>-2.120000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>152</v>
       </c>
@@ -2650,11 +4779,25 @@
         <v>9.27</v>
       </c>
       <c r="E155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.21000000000000085</v>
       </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="L155">
+        <v>695</v>
+      </c>
+      <c r="M155">
+        <v>29.28</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="8"/>
+        <v>2.490000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>153</v>
       </c>
@@ -2665,11 +4808,25 @@
         <v>9.64</v>
       </c>
       <c r="E156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.37000000000000099</v>
       </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="L156">
+        <v>683</v>
+      </c>
+      <c r="M156">
+        <v>27.13</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="8"/>
+        <v>-2.1500000000000021</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>154</v>
       </c>
@@ -2680,11 +4837,25 @@
         <v>9.64</v>
       </c>
       <c r="E157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>696</v>
+      </c>
+      <c r="M157">
+        <v>29.47</v>
+      </c>
+      <c r="N157">
+        <f t="shared" si="8"/>
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>155</v>
       </c>
@@ -2695,11 +4866,25 @@
         <v>9.48</v>
       </c>
       <c r="E158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.16000000000000014</v>
       </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="L158">
+        <v>685</v>
+      </c>
+      <c r="M158">
+        <v>27.47</v>
+      </c>
+      <c r="N158">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>156</v>
       </c>
@@ -2710,11 +4895,25 @@
         <v>9.75</v>
       </c>
       <c r="E159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26999999999999957</v>
       </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L159">
+        <v>698</v>
+      </c>
+      <c r="M159">
+        <v>29.85</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="8"/>
+        <v>2.3800000000000026</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>157</v>
       </c>
@@ -2725,11 +4924,25 @@
         <v>9.5399999999999991</v>
       </c>
       <c r="E160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.21000000000000085</v>
       </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="L160">
+        <v>699</v>
+      </c>
+      <c r="M160">
+        <v>30.04</v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="8"/>
+        <v>0.18999999999999773</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>158</v>
       </c>
@@ -2740,11 +4953,25 @@
         <v>9.92</v>
       </c>
       <c r="E161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.38000000000000078</v>
       </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="L161">
+        <v>688</v>
+      </c>
+      <c r="M161">
+        <v>28</v>
+      </c>
+      <c r="N161">
+        <f t="shared" si="8"/>
+        <v>-2.0399999999999991</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>159</v>
       </c>
@@ -2755,11 +4982,25 @@
         <v>9.64</v>
       </c>
       <c r="E162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.27999999999999936</v>
       </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L162">
+        <v>701</v>
+      </c>
+      <c r="M162">
+        <v>30.43</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="8"/>
+        <v>2.4299999999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>160</v>
       </c>
@@ -2770,11 +5011,25 @@
         <v>10.029999999999999</v>
       </c>
       <c r="E163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.38999999999999879</v>
       </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="L163">
+        <v>690</v>
+      </c>
+      <c r="M163">
+        <v>28.36</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="8"/>
+        <v>-2.0700000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>161</v>
       </c>
@@ -2785,11 +5040,25 @@
         <v>10.029999999999999</v>
       </c>
       <c r="E164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>702</v>
+      </c>
+      <c r="M164">
+        <v>30.63</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="8"/>
+        <v>2.2699999999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>162</v>
       </c>
@@ -2800,11 +5069,25 @@
         <v>10.14</v>
       </c>
       <c r="E165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11000000000000121</v>
       </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>691</v>
+      </c>
+      <c r="M165">
+        <v>28.54</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="8"/>
+        <v>-2.09</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>163</v>
       </c>
@@ -2815,11 +5098,25 @@
         <v>10.14</v>
       </c>
       <c r="E166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>704</v>
+      </c>
+      <c r="M166">
+        <v>31.03</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="8"/>
+        <v>2.490000000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>164</v>
       </c>
@@ -2830,11 +5127,25 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="E167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.16999999999999993</v>
       </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="L167">
+        <v>704</v>
+      </c>
+      <c r="M167">
+        <v>31.03</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>165</v>
       </c>
@@ -2845,11 +5156,25 @@
         <v>10.31</v>
       </c>
       <c r="E168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33999999999999986</v>
       </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L168">
+        <v>705</v>
+      </c>
+      <c r="M168">
+        <v>31.24</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="8"/>
+        <v>0.2099999999999973</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>166</v>
       </c>
@@ -2860,11 +5185,25 @@
         <v>10.08</v>
       </c>
       <c r="E169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.23000000000000043</v>
       </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="L169">
+        <v>706</v>
+      </c>
+      <c r="M169">
+        <v>31.44</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="8"/>
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>167</v>
       </c>
@@ -2875,11 +5214,25 @@
         <v>10.43</v>
       </c>
       <c r="E170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.34999999999999964</v>
       </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L170">
+        <v>696</v>
+      </c>
+      <c r="M170">
+        <v>29.47</v>
+      </c>
+      <c r="N170">
+        <f t="shared" si="8"/>
+        <v>-1.9700000000000024</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>168</v>
       </c>
@@ -2890,11 +5243,25 @@
         <v>10.43</v>
       </c>
       <c r="E171">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>708</v>
+      </c>
+      <c r="M171">
+        <v>31.86</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="8"/>
+        <v>2.3900000000000006</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>169</v>
       </c>
@@ -2905,11 +5272,25 @@
         <v>10.55</v>
       </c>
       <c r="E172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.12000000000000099</v>
       </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>697</v>
+      </c>
+      <c r="M172">
+        <v>29.66</v>
+      </c>
+      <c r="N172">
+        <f t="shared" si="8"/>
+        <v>-2.1999999999999993</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>170</v>
       </c>
@@ -2920,11 +5301,25 @@
         <v>10.61</v>
       </c>
       <c r="E173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.9999999999998721E-2</v>
       </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>709</v>
+      </c>
+      <c r="M173">
+        <v>32.07</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="8"/>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>171</v>
       </c>
@@ -2935,11 +5330,25 @@
         <v>10.37</v>
       </c>
       <c r="E174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.24000000000000021</v>
       </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="L174">
+        <v>699</v>
+      </c>
+      <c r="M174">
+        <v>30.04</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="8"/>
+        <v>-2.0300000000000011</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>172</v>
       </c>
@@ -2950,11 +5359,25 @@
         <v>10.66</v>
       </c>
       <c r="E175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.29000000000000092</v>
       </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L175">
+        <v>710</v>
+      </c>
+      <c r="M175">
+        <v>32.28</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="8"/>
+        <v>2.240000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>173</v>
       </c>
@@ -2965,11 +5388,25 @@
         <v>10.49</v>
       </c>
       <c r="E176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.16999999999999993</v>
       </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="L176">
+        <v>710</v>
+      </c>
+      <c r="M176">
+        <v>32.28</v>
+      </c>
+      <c r="N176">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>174</v>
       </c>
@@ -2980,11 +5417,25 @@
         <v>10.85</v>
       </c>
       <c r="E177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.35999999999999943</v>
       </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L177">
+        <v>711</v>
+      </c>
+      <c r="M177">
+        <v>32.49</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="8"/>
+        <v>0.21000000000000085</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>175</v>
       </c>
@@ -2995,11 +5446,25 @@
         <v>10.55</v>
       </c>
       <c r="E178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.29999999999999893</v>
       </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L178">
+        <v>712</v>
+      </c>
+      <c r="M178">
+        <v>32.71</v>
+      </c>
+      <c r="N178">
+        <f t="shared" si="8"/>
+        <v>0.21999999999999886</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>176</v>
       </c>
@@ -3010,11 +5475,25 @@
         <v>10.91</v>
       </c>
       <c r="E179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.35999999999999943</v>
       </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L179">
+        <v>705</v>
+      </c>
+      <c r="M179">
+        <v>31.24</v>
+      </c>
+      <c r="N179">
+        <f t="shared" si="8"/>
+        <v>-1.4700000000000024</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>177</v>
       </c>
@@ -3025,11 +5504,25 @@
         <v>10.97</v>
       </c>
       <c r="E180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.0000000000000497E-2</v>
       </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>713</v>
+      </c>
+      <c r="M180">
+        <v>32.92</v>
+      </c>
+      <c r="N180">
+        <f t="shared" si="8"/>
+        <v>1.6800000000000033</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>178</v>
       </c>
@@ -3040,11 +5533,25 @@
         <v>11.09</v>
       </c>
       <c r="E181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11999999999999922</v>
       </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>706</v>
+      </c>
+      <c r="M181">
+        <v>31.44</v>
+      </c>
+      <c r="N181">
+        <f t="shared" si="8"/>
+        <v>-1.4800000000000004</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>179</v>
       </c>
@@ -3055,11 +5562,25 @@
         <v>11.09</v>
       </c>
       <c r="E182">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>715</v>
+      </c>
+      <c r="M182">
+        <v>33.36</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="8"/>
+        <v>1.9199999999999982</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>180</v>
       </c>
@@ -3070,11 +5591,25 @@
         <v>10.91</v>
       </c>
       <c r="E183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.17999999999999972</v>
       </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="L183">
+        <v>715</v>
+      </c>
+      <c r="M183">
+        <v>33.36</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>181</v>
       </c>
@@ -3085,11 +5620,25 @@
         <v>11.22</v>
       </c>
       <c r="E184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.3100000000000005</v>
       </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L184">
+        <v>717</v>
+      </c>
+      <c r="M184">
+        <v>33.81</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="8"/>
+        <v>0.45000000000000284</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>182</v>
       </c>
@@ -3100,11 +5649,25 @@
         <v>10.97</v>
       </c>
       <c r="E185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="L185">
+        <v>717</v>
+      </c>
+      <c r="M185">
+        <v>33.81</v>
+      </c>
+      <c r="N185">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>183</v>
       </c>
@@ -3115,11 +5678,25 @@
         <v>11.34</v>
       </c>
       <c r="E186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.36999999999999922</v>
       </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L186">
+        <v>711</v>
+      </c>
+      <c r="M186">
+        <v>32.49</v>
+      </c>
+      <c r="N186">
+        <f t="shared" si="8"/>
+        <v>-1.3200000000000003</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>184</v>
       </c>
@@ -3130,11 +5707,25 @@
         <v>11.28</v>
       </c>
       <c r="E187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-6.0000000000000497E-2</v>
       </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="L187">
+        <v>719</v>
+      </c>
+      <c r="M187">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="8"/>
+        <v>1.7800000000000011</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>185</v>
       </c>
@@ -3145,11 +5736,25 @@
         <v>11.47</v>
       </c>
       <c r="E188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19000000000000128</v>
       </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L188">
+        <v>711</v>
+      </c>
+      <c r="M188">
+        <v>32.49</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="8"/>
+        <v>-1.7800000000000011</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>186</v>
       </c>
@@ -3160,11 +5765,25 @@
         <v>11.47</v>
       </c>
       <c r="E189">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>720</v>
+      </c>
+      <c r="M189">
+        <v>34.5</v>
+      </c>
+      <c r="N189">
+        <f t="shared" si="8"/>
+        <v>2.009999999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>187</v>
       </c>
@@ -3175,11 +5794,25 @@
         <v>11.53</v>
       </c>
       <c r="E190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.9999999999998721E-2</v>
       </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>720</v>
+      </c>
+      <c r="M190">
+        <v>34.5</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>188</v>
       </c>
@@ -3190,11 +5823,25 @@
         <v>11.6</v>
       </c>
       <c r="E191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.0000000000000284E-2</v>
       </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>722</v>
+      </c>
+      <c r="M191">
+        <v>34.96</v>
+      </c>
+      <c r="N191">
+        <f t="shared" si="8"/>
+        <v>0.46000000000000085</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>189</v>
       </c>
@@ -3205,11 +5852,25 @@
         <v>11.34</v>
       </c>
       <c r="E192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.25999999999999979</v>
       </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="L192">
+        <v>722</v>
+      </c>
+      <c r="M192">
+        <v>34.96</v>
+      </c>
+      <c r="N192">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>190</v>
       </c>
@@ -3220,11 +5881,25 @@
         <v>11.73</v>
       </c>
       <c r="E193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.39000000000000057</v>
       </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L193">
+        <v>716</v>
+      </c>
+      <c r="M193">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="N193">
+        <f t="shared" si="8"/>
+        <v>-1.3699999999999974</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>191</v>
       </c>
@@ -3235,11 +5910,25 @@
         <v>11.47</v>
       </c>
       <c r="E194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.25999999999999979</v>
       </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="L194">
+        <v>723</v>
+      </c>
+      <c r="M194">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="N194">
+        <f t="shared" si="8"/>
+        <v>1.6099999999999994</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>192</v>
       </c>
@@ -3250,11 +5939,25 @@
         <v>11.86</v>
       </c>
       <c r="E195">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.38999999999999879</v>
       </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L195">
+        <v>717</v>
+      </c>
+      <c r="M195">
+        <v>33.81</v>
+      </c>
+      <c r="N195">
+        <f t="shared" si="8"/>
+        <v>-1.3900000000000006</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>193</v>
       </c>
@@ -3265,11 +5968,25 @@
         <v>11.93</v>
       </c>
       <c r="E196">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.0000000000000284E-2</v>
       </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>725</v>
+      </c>
+      <c r="M196">
+        <v>35.68</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="8"/>
+        <v>1.8699999999999974</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>194</v>
       </c>
@@ -3280,11 +5997,25 @@
         <v>12</v>
       </c>
       <c r="E197">
-        <f t="shared" ref="E197:E258" si="3">D197-D196</f>
+        <f t="shared" ref="E197:E258" si="9">D197-D196</f>
         <v>7.0000000000000284E-2</v>
       </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <f t="shared" ref="G197:G258" si="10">C197-C196</f>
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>725</v>
+      </c>
+      <c r="M197">
+        <v>35.68</v>
+      </c>
+      <c r="N197">
+        <f t="shared" ref="N197:N258" si="11">M197-M196</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>195</v>
       </c>
@@ -3295,11 +6026,25 @@
         <v>12</v>
       </c>
       <c r="E198">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>726</v>
+      </c>
+      <c r="M198">
+        <v>35.92</v>
+      </c>
+      <c r="N198">
+        <f t="shared" si="11"/>
+        <v>0.24000000000000199</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>196</v>
       </c>
@@ -3310,11 +6055,25 @@
         <v>11.8</v>
       </c>
       <c r="E199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.19999999999999929</v>
       </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
+      <c r="L199">
+        <v>727</v>
+      </c>
+      <c r="M199">
+        <v>36.17</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>197</v>
       </c>
@@ -3325,11 +6084,25 @@
         <v>12.13</v>
       </c>
       <c r="E200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.33000000000000007</v>
       </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="L200">
+        <v>720</v>
+      </c>
+      <c r="M200">
+        <v>34.5</v>
+      </c>
+      <c r="N200">
+        <f t="shared" si="11"/>
+        <v>-1.6700000000000017</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>198</v>
       </c>
@@ -3340,11 +6113,25 @@
         <v>11.86</v>
       </c>
       <c r="E201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.27000000000000135</v>
       </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="L201">
+        <v>728</v>
+      </c>
+      <c r="M201">
+        <v>36.409999999999997</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="11"/>
+        <v>1.9099999999999966</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>199</v>
       </c>
@@ -3355,11 +6142,25 @@
         <v>12.27</v>
       </c>
       <c r="E202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.41000000000000014</v>
       </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="L202">
+        <v>721</v>
+      </c>
+      <c r="M202">
+        <v>34.729999999999997</v>
+      </c>
+      <c r="N202">
+        <f t="shared" si="11"/>
+        <v>-1.6799999999999997</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>200</v>
       </c>
@@ -3370,11 +6171,25 @@
         <v>12.27</v>
       </c>
       <c r="E203">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>729</v>
+      </c>
+      <c r="M203">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="N203">
+        <f t="shared" si="11"/>
+        <v>1.9299999999999997</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>201</v>
       </c>
@@ -3385,11 +6200,25 @@
         <v>12.34</v>
       </c>
       <c r="E204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.0000000000000284E-2</v>
       </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>729</v>
+      </c>
+      <c r="M204">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="N204">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>202</v>
       </c>
@@ -3400,11 +6229,25 @@
         <v>12.48</v>
       </c>
       <c r="E205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.14000000000000057</v>
       </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L205">
+        <v>730</v>
+      </c>
+      <c r="M205">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="N205">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>203</v>
       </c>
@@ -3415,11 +6258,25 @@
         <v>12.2</v>
       </c>
       <c r="E206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.28000000000000114</v>
       </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="L206">
+        <v>730</v>
+      </c>
+      <c r="M206">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="N206">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>204</v>
       </c>
@@ -3430,11 +6287,25 @@
         <v>12.48</v>
       </c>
       <c r="E207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.28000000000000114</v>
       </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="L207">
+        <v>724</v>
+      </c>
+      <c r="M207">
+        <v>35.44</v>
+      </c>
+      <c r="N207">
+        <f t="shared" si="11"/>
+        <v>-1.4699999999999989</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>205</v>
       </c>
@@ -3445,11 +6316,25 @@
         <v>12.2</v>
       </c>
       <c r="E208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.28000000000000114</v>
       </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="L208">
+        <v>731</v>
+      </c>
+      <c r="M208">
+        <v>37.17</v>
+      </c>
+      <c r="N208">
+        <f t="shared" si="11"/>
+        <v>1.730000000000004</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>206</v>
       </c>
@@ -3460,11 +6345,25 @@
         <v>12.62</v>
       </c>
       <c r="E209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.41999999999999993</v>
       </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="L209">
+        <v>724</v>
+      </c>
+      <c r="M209">
+        <v>35.44</v>
+      </c>
+      <c r="N209">
+        <f t="shared" si="11"/>
+        <v>-1.730000000000004</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>207</v>
       </c>
@@ -3475,11 +6374,25 @@
         <v>12.62</v>
       </c>
       <c r="E210">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>733</v>
+      </c>
+      <c r="M210">
+        <v>37.68</v>
+      </c>
+      <c r="N210">
+        <f t="shared" si="11"/>
+        <v>2.240000000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>208</v>
       </c>
@@ -3490,11 +6403,25 @@
         <v>12.76</v>
       </c>
       <c r="E211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.14000000000000057</v>
       </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>733</v>
+      </c>
+      <c r="M211">
+        <v>37.68</v>
+      </c>
+      <c r="N211">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>209</v>
       </c>
@@ -3505,11 +6432,25 @@
         <v>12.76</v>
       </c>
       <c r="E212">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>734</v>
+      </c>
+      <c r="M212">
+        <v>37.94</v>
+      </c>
+      <c r="N212">
+        <f t="shared" si="11"/>
+        <v>0.25999999999999801</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>210</v>
       </c>
@@ -3520,11 +6461,25 @@
         <v>12.91</v>
       </c>
       <c r="E213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.15000000000000036</v>
       </c>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>734</v>
+      </c>
+      <c r="M213">
+        <v>37.94</v>
+      </c>
+      <c r="N213">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>211</v>
       </c>
@@ -3535,11 +6490,25 @@
         <v>12.91</v>
       </c>
       <c r="E214">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>728</v>
+      </c>
+      <c r="M214">
+        <v>36.409999999999997</v>
+      </c>
+      <c r="N214">
+        <f t="shared" si="11"/>
+        <v>-1.5300000000000011</v>
+      </c>
+    </row>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>212</v>
       </c>
@@ -3550,11 +6519,25 @@
         <v>12.62</v>
       </c>
       <c r="E215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.29000000000000092</v>
       </c>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="L215">
+        <v>735</v>
+      </c>
+      <c r="M215">
+        <v>38.21</v>
+      </c>
+      <c r="N215">
+        <f t="shared" si="11"/>
+        <v>1.8000000000000043</v>
+      </c>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>213</v>
       </c>
@@ -3565,11 +6548,25 @@
         <v>13.05</v>
       </c>
       <c r="E216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.43000000000000149</v>
       </c>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="L216">
+        <v>735</v>
+      </c>
+      <c r="M216">
+        <v>38.21</v>
+      </c>
+      <c r="N216">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>214</v>
       </c>
@@ -3580,11 +6577,25 @@
         <v>13.05</v>
       </c>
       <c r="E217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>737</v>
+      </c>
+      <c r="M217">
+        <v>38.74</v>
+      </c>
+      <c r="N217">
+        <f t="shared" si="11"/>
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>215</v>
       </c>
@@ -3595,11 +6606,25 @@
         <v>13.13</v>
       </c>
       <c r="E218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>737</v>
+      </c>
+      <c r="M218">
+        <v>38.74</v>
+      </c>
+      <c r="N218">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>216</v>
       </c>
@@ -3610,11 +6635,25 @@
         <v>13.2</v>
       </c>
       <c r="E219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.9999999999998508E-2</v>
       </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>738</v>
+      </c>
+      <c r="M219">
+        <v>39.01</v>
+      </c>
+      <c r="N219">
+        <f t="shared" si="11"/>
+        <v>0.26999999999999602</v>
+      </c>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>217</v>
       </c>
@@ -3625,11 +6664,25 @@
         <v>13.28</v>
       </c>
       <c r="E220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>738</v>
+      </c>
+      <c r="M220">
+        <v>39.01</v>
+      </c>
+      <c r="N220">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>218</v>
       </c>
@@ -3640,11 +6693,25 @@
         <v>13.28</v>
       </c>
       <c r="E221">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>732</v>
+      </c>
+      <c r="M221">
+        <v>37.42</v>
+      </c>
+      <c r="N221">
+        <f t="shared" si="11"/>
+        <v>-1.5899999999999963</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>219</v>
       </c>
@@ -3655,11 +6722,25 @@
         <v>12.98</v>
       </c>
       <c r="E222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.29999999999999893</v>
       </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="L222">
+        <v>739</v>
+      </c>
+      <c r="M222">
+        <v>39.28</v>
+      </c>
+      <c r="N222">
+        <f t="shared" si="11"/>
+        <v>1.8599999999999994</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>220</v>
       </c>
@@ -3670,11 +6751,25 @@
         <v>13.43</v>
       </c>
       <c r="E223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.44999999999999929</v>
       </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="L223">
+        <v>739</v>
+      </c>
+      <c r="M223">
+        <v>39.28</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>221</v>
       </c>
@@ -3685,11 +6780,25 @@
         <v>13.43</v>
       </c>
       <c r="E224">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>740</v>
+      </c>
+      <c r="M224">
+        <v>39.56</v>
+      </c>
+      <c r="N224">
+        <f t="shared" si="11"/>
+        <v>0.28000000000000114</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>222</v>
       </c>
@@ -3700,11 +6809,25 @@
         <v>13.58</v>
       </c>
       <c r="E225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.15000000000000036</v>
       </c>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G225">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L225">
+        <v>740</v>
+      </c>
+      <c r="M225">
+        <v>39.56</v>
+      </c>
+      <c r="N225">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>223</v>
       </c>
@@ -3715,11 +6838,25 @@
         <v>13.58</v>
       </c>
       <c r="E226">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>742</v>
+      </c>
+      <c r="M226">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="N226">
+        <f t="shared" si="11"/>
+        <v>0.55999999999999517</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>224</v>
       </c>
@@ -3730,11 +6867,25 @@
         <v>13.66</v>
       </c>
       <c r="E227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>741</v>
+      </c>
+      <c r="M227">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="N227">
+        <f t="shared" si="11"/>
+        <v>-0.27999999999999403</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>225</v>
       </c>
@@ -3745,11 +6896,25 @@
         <v>13.66</v>
       </c>
       <c r="E228">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>736</v>
+      </c>
+      <c r="M228">
+        <v>38.47</v>
+      </c>
+      <c r="N228">
+        <f t="shared" si="11"/>
+        <v>-1.3700000000000045</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>226</v>
       </c>
@@ -3760,11 +6925,25 @@
         <v>13.35</v>
       </c>
       <c r="E229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.3100000000000005</v>
       </c>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="L229">
+        <v>742</v>
+      </c>
+      <c r="M229">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="N229">
+        <f t="shared" si="11"/>
+        <v>1.6499999999999986</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>227</v>
       </c>
@@ -3775,11 +6954,25 @@
         <v>13.81</v>
       </c>
       <c r="E230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.46000000000000085</v>
       </c>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="L230">
+        <v>742</v>
+      </c>
+      <c r="M230">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="N230">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>228</v>
       </c>
@@ -3790,11 +6983,25 @@
         <v>13.81</v>
       </c>
       <c r="E231">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>743</v>
+      </c>
+      <c r="M231">
+        <v>40.4</v>
+      </c>
+      <c r="N231">
+        <f t="shared" si="11"/>
+        <v>0.28000000000000114</v>
+      </c>
+    </row>
+    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>229</v>
       </c>
@@ -3805,11 +7012,25 @@
         <v>13.89</v>
       </c>
       <c r="E232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>744</v>
+      </c>
+      <c r="M232">
+        <v>40.68</v>
+      </c>
+      <c r="N232">
+        <f t="shared" si="11"/>
+        <v>0.28000000000000114</v>
+      </c>
+    </row>
+    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>230</v>
       </c>
@@ -3820,11 +7041,25 @@
         <v>13.97</v>
       </c>
       <c r="E233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>745</v>
+      </c>
+      <c r="M233">
+        <v>40.97</v>
+      </c>
+      <c r="N233">
+        <f t="shared" si="11"/>
+        <v>0.28999999999999915</v>
+      </c>
+    </row>
+    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>231</v>
       </c>
@@ -3835,11 +7070,25 @@
         <v>14.05</v>
       </c>
       <c r="E234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>745</v>
+      </c>
+      <c r="M234">
+        <v>40.97</v>
+      </c>
+      <c r="N234">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>232</v>
       </c>
@@ -3850,11 +7099,25 @@
         <v>14.05</v>
       </c>
       <c r="E235">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>745</v>
+      </c>
+      <c r="M235">
+        <v>40.97</v>
+      </c>
+      <c r="N235">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>233</v>
       </c>
@@ -3865,11 +7128,25 @@
         <v>14.05</v>
       </c>
       <c r="E236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>746</v>
+      </c>
+      <c r="M236">
+        <v>41.26</v>
+      </c>
+      <c r="N236">
+        <f t="shared" si="11"/>
+        <v>0.28999999999999915</v>
+      </c>
+    </row>
+    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>234</v>
       </c>
@@ -3880,11 +7157,25 @@
         <v>14.13</v>
       </c>
       <c r="E237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>746</v>
+      </c>
+      <c r="M237">
+        <v>41.26</v>
+      </c>
+      <c r="N237">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>235</v>
       </c>
@@ -3895,11 +7186,25 @@
         <v>14.13</v>
       </c>
       <c r="E238">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>748</v>
+      </c>
+      <c r="M238">
+        <v>41.85</v>
+      </c>
+      <c r="N238">
+        <f t="shared" si="11"/>
+        <v>0.59000000000000341</v>
+      </c>
+    </row>
+    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>236</v>
       </c>
@@ -3910,11 +7215,25 @@
         <v>14.29</v>
       </c>
       <c r="E239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.15999999999999837</v>
       </c>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L239">
+        <v>748</v>
+      </c>
+      <c r="M239">
+        <v>41.85</v>
+      </c>
+      <c r="N239">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>237</v>
       </c>
@@ -3925,11 +7244,25 @@
         <v>14.37</v>
       </c>
       <c r="E240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>748</v>
+      </c>
+      <c r="M240">
+        <v>41.85</v>
+      </c>
+      <c r="N240">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>238</v>
       </c>
@@ -3940,11 +7273,25 @@
         <v>14.37</v>
       </c>
       <c r="E241">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>749</v>
+      </c>
+      <c r="M241">
+        <v>42.15</v>
+      </c>
+      <c r="N241">
+        <f t="shared" si="11"/>
+        <v>0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>239</v>
       </c>
@@ -3955,11 +7302,25 @@
         <v>14.45</v>
       </c>
       <c r="E242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G242">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>749</v>
+      </c>
+      <c r="M242">
+        <v>42.15</v>
+      </c>
+      <c r="N242">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>240</v>
       </c>
@@ -3970,11 +7331,25 @@
         <v>14.45</v>
       </c>
       <c r="E243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>749</v>
+      </c>
+      <c r="M243">
+        <v>42.15</v>
+      </c>
+      <c r="N243">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>241</v>
       </c>
@@ -3985,11 +7360,25 @@
         <v>14.54</v>
       </c>
       <c r="E244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.9999999999999858E-2</v>
       </c>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>749</v>
+      </c>
+      <c r="M244">
+        <v>42.15</v>
+      </c>
+      <c r="N244">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>242</v>
       </c>
@@ -4000,11 +7389,25 @@
         <v>14.21</v>
       </c>
       <c r="E245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.32999999999999829</v>
       </c>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="L245">
+        <v>751</v>
+      </c>
+      <c r="M245">
+        <v>42.76</v>
+      </c>
+      <c r="N245">
+        <f t="shared" si="11"/>
+        <v>0.60999999999999943</v>
+      </c>
+    </row>
+    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>243</v>
       </c>
@@ -4015,11 +7418,25 @@
         <v>14.62</v>
       </c>
       <c r="E246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.40999999999999837</v>
       </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="L246">
+        <v>751</v>
+      </c>
+      <c r="M246">
+        <v>42.76</v>
+      </c>
+      <c r="N246">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>244</v>
       </c>
@@ -4030,11 +7447,25 @@
         <v>14.7</v>
       </c>
       <c r="E247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>752</v>
+      </c>
+      <c r="M247">
+        <v>43.07</v>
+      </c>
+      <c r="N247">
+        <f t="shared" si="11"/>
+        <v>0.31000000000000227</v>
+      </c>
+    </row>
+    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>245</v>
       </c>
@@ -4045,11 +7476,25 @@
         <v>14.79</v>
       </c>
       <c r="E248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.9999999999999858E-2</v>
       </c>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>752</v>
+      </c>
+      <c r="M248">
+        <v>43.07</v>
+      </c>
+      <c r="N248">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>246</v>
       </c>
@@ -4060,11 +7505,25 @@
         <v>14.79</v>
       </c>
       <c r="E249">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>752</v>
+      </c>
+      <c r="M249">
+        <v>43.07</v>
+      </c>
+      <c r="N249">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>247</v>
       </c>
@@ -4075,11 +7534,25 @@
         <v>14.87</v>
       </c>
       <c r="E250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>753</v>
+      </c>
+      <c r="M250">
+        <v>43.38</v>
+      </c>
+      <c r="N250">
+        <f t="shared" si="11"/>
+        <v>0.31000000000000227</v>
+      </c>
+    </row>
+    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>248</v>
       </c>
@@ -4090,11 +7563,25 @@
         <v>14.87</v>
       </c>
       <c r="E251">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>753</v>
+      </c>
+      <c r="M251">
+        <v>43.38</v>
+      </c>
+      <c r="N251">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>249</v>
       </c>
@@ -4105,11 +7592,25 @@
         <v>14.96</v>
       </c>
       <c r="E252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.0000000000001634E-2</v>
       </c>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G252">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>754</v>
+      </c>
+      <c r="M252">
+        <v>43.69</v>
+      </c>
+      <c r="N252">
+        <f t="shared" si="11"/>
+        <v>0.30999999999999517</v>
+      </c>
+    </row>
+    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>250</v>
       </c>
@@ -4120,11 +7621,25 @@
         <v>14.96</v>
       </c>
       <c r="E253">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>754</v>
+      </c>
+      <c r="M253">
+        <v>43.69</v>
+      </c>
+      <c r="N253">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>251</v>
       </c>
@@ -4135,11 +7650,25 @@
         <v>15.13</v>
       </c>
       <c r="E254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.16999999999999993</v>
       </c>
-    </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G254">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L254">
+        <v>755</v>
+      </c>
+      <c r="M254">
+        <v>44.01</v>
+      </c>
+      <c r="N254">
+        <f t="shared" si="11"/>
+        <v>0.32000000000000028</v>
+      </c>
+    </row>
+    <row r="255" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>252</v>
       </c>
@@ -4150,11 +7679,25 @@
         <v>15.13</v>
       </c>
       <c r="E255">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>755</v>
+      </c>
+      <c r="M255">
+        <v>44.01</v>
+      </c>
+      <c r="N255">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>253</v>
       </c>
@@ -4165,11 +7708,25 @@
         <v>15.13</v>
       </c>
       <c r="E256">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>756</v>
+      </c>
+      <c r="M256">
+        <v>44.33</v>
+      </c>
+      <c r="N256">
+        <f t="shared" si="11"/>
+        <v>0.32000000000000028</v>
+      </c>
+    </row>
+    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>254</v>
       </c>
@@ -4180,11 +7737,25 @@
         <v>15.22</v>
       </c>
       <c r="E257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.9999999999999858E-2</v>
       </c>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G257">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L257">
+        <v>756</v>
+      </c>
+      <c r="M257">
+        <v>44.33</v>
+      </c>
+      <c r="N257">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>255</v>
       </c>
@@ -4195,8 +7766,22 @@
         <v>15.3</v>
       </c>
       <c r="E258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="G258">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>757</v>
+      </c>
+      <c r="M258">
+        <v>44.65</v>
+      </c>
+      <c r="N258">
+        <f t="shared" si="11"/>
+        <v>0.32000000000000028</v>
       </c>
     </row>
   </sheetData>
